--- a/レビュー記録/02_画面設計書レビュー.xlsx
+++ b/レビュー記録/02_画面設計書レビュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibuki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawaryota/Desktop/github/2023Dev2Early/レビュー記録/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FAC472-1F1E-4302-A594-5EC80CE72D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76F098-673A-1441-B0B4-885B04210A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>レビュー記録</t>
     <rPh sb="4" eb="6">
@@ -298,6 +298,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アプデート箇所に色で囲みをつけた</t>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1172,12 +1179,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,30 +1215,147 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,9 +1378,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1287,15 +1402,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -1312,115 +1418,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,38 +1769,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.6640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:10" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="2:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+    </row>
+    <row r="3" spans="2:10" ht="5.25" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1804,547 +1811,529 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:10" ht="20" customHeight="1">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="42" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="H4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="2:10" ht="20" customHeight="1">
+      <c r="B5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="F5" s="53"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="2:10" ht="20" customHeight="1">
+      <c r="B6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="H6" s="44" t="s">
+      <c r="F6" s="84"/>
+      <c r="H6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="2:10" ht="20" customHeight="1">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="2:10" ht="20" customHeight="1">
+      <c r="B8" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="H8" s="32" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="H8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+    <row r="9" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B9" s="79"/>
       <c r="C9" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+    <row r="10" spans="2:10" ht="5.25" customHeight="1"/>
+    <row r="11" spans="2:10" ht="3" customHeight="1" thickBot="1"/>
+    <row r="12" spans="2:10" ht="22.5" customHeight="1">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="63" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="16" t="s">
+    <row r="13" spans="2:10" ht="14" customHeight="1" thickBot="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:10" ht="50" customHeight="1">
+      <c r="B14" s="41">
         <v>1</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="85">
+        <v>45047</v>
+      </c>
+      <c r="J14" s="86">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="42"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44">
+    <row r="16" spans="2:10" ht="50" customHeight="1">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="43"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="7" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44">
+    <row r="18" spans="2:10" ht="50" customHeight="1">
+      <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="43"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="7" t="s">
+      <c r="G18" s="23"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44">
+    <row r="20" spans="2:10" ht="50" customHeight="1">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="43"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="7" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="44">
+    <row r="22" spans="2:10" ht="50" customHeight="1">
+      <c r="B22" s="17">
         <v>5</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="43"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="7" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44">
+    <row r="24" spans="2:10" ht="50" customHeight="1">
+      <c r="B24" s="17">
         <v>6</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="7" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44">
+    <row r="26" spans="2:10" ht="50" customHeight="1">
+      <c r="B26" s="17">
         <v>7</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="7" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44">
+    <row r="28" spans="2:10" ht="50" customHeight="1">
+      <c r="B28" s="17">
         <v>8</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="7" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="44">
+    <row r="30" spans="2:10" ht="50" customHeight="1">
+      <c r="B30" s="17">
         <v>9</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="7" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="44">
+    <row r="32" spans="2:10" ht="50" customHeight="1">
+      <c r="B32" s="17">
         <v>10</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="7" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="44">
+    <row r="34" spans="2:10" ht="50" customHeight="1">
+      <c r="B34" s="17">
         <v>11</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="7" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="44">
+    <row r="36" spans="2:10" ht="50" customHeight="1">
+      <c r="B36" s="17">
         <v>12</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="2:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="9" t="s">
+      <c r="G36" s="23"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" ht="12" customHeight="1" thickBot="1">
+      <c r="B37" s="25"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="13.5" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:H37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:H35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B26:B27"/>
@@ -2361,22 +2350,46 @@
     <mergeCell ref="F22:H23"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:H37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.94488188976377963" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2388,6 +2401,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007081BF80CDABE2409E7AC03002E0EC18" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3180883bc47af021c7778a69e39c0ee7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af97f005-77d1-4ca0-aa66-92d9fef63111" xmlns:ns3="5693f406-aeca-4321-a656-3a9a02e36084" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1356b8793e215cabb5557499de2766e" ns2:_="" ns3:_="">
     <xsd:import namespace="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
@@ -2598,27 +2631,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="af97f005-77d1-4ca0-aa66-92d9fef63111">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5693f406-aeca-4321-a656-3a9a02e36084" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C478FE-4CD7-4022-ACF8-4E630FB7FC2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{249A2D38-E342-450F-9999-F3FADA83DA1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
+    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A209D3AB-17AF-4009-AD06-D7DEA9966713}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2635,23 +2667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{249A2D38-E342-450F-9999-F3FADA83DA1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af97f005-77d1-4ca0-aa66-92d9fef63111"/>
-    <ds:schemaRef ds:uri="5693f406-aeca-4321-a656-3a9a02e36084"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C478FE-4CD7-4022-ACF8-4E630FB7FC2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>